--- a/Matricula.TE/MA/TMETR (Tablero de Control)/TMETR_V2.0_2017.xlsx
+++ b/Matricula.TE/MA/TMETR (Tablero de Control)/TMETR_V2.0_2017.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="70">
   <si>
     <t xml:space="preserve">Proyecto </t>
   </si>
@@ -993,7 +993,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1414,15 +1414,18 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1466,24 +1469,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1703,11 +1688,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="283799760"/>
-        <c:axId val="377922008"/>
+        <c:axId val="362090616"/>
+        <c:axId val="362092968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="283799760"/>
+        <c:axId val="362090616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,7 +1791,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377922008"/>
+        <c:crossAx val="362092968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1814,7 +1799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377922008"/>
+        <c:axId val="362092968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,7 +1891,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="283799760"/>
+        <c:crossAx val="362090616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2189,11 +2174,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="377922792"/>
-        <c:axId val="377923184"/>
+        <c:axId val="362093752"/>
+        <c:axId val="362092576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="377922792"/>
+        <c:axId val="362093752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2236,7 +2221,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377923184"/>
+        <c:crossAx val="362092576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2244,7 +2229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377923184"/>
+        <c:axId val="362092576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2265,7 +2250,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="377922792"/>
+        <c:crossAx val="362093752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2371,6 +2356,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2482,11 +2468,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="279031792"/>
-        <c:axId val="279032184"/>
+        <c:axId val="296926160"/>
+        <c:axId val="296927336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="279031792"/>
+        <c:axId val="296926160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,6 +2504,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2584,7 +2571,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279032184"/>
+        <c:crossAx val="296927336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2592,7 +2579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279032184"/>
+        <c:axId val="296927336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,6 +2625,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2698,7 +2686,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279031792"/>
+        <c:crossAx val="296926160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2712,6 +2700,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -2949,12 +2938,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="279032968"/>
-        <c:axId val="279033360"/>
+        <c:axId val="181456848"/>
+        <c:axId val="298600096"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="279032968"/>
+        <c:axId val="181456848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2991,7 +2980,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279033360"/>
+        <c:crossAx val="298600096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2999,7 +2988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279033360"/>
+        <c:axId val="298600096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3047,7 +3036,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279032968"/>
+        <c:crossAx val="181456848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3133,6 +3122,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3240,6 +3230,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3304,11 +3295,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="285418920"/>
-        <c:axId val="285419312"/>
+        <c:axId val="291182992"/>
+        <c:axId val="353571544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="285418920"/>
+        <c:axId val="291182992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3345,6 +3336,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3411,7 +3403,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285419312"/>
+        <c:crossAx val="353571544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3419,7 +3411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285419312"/>
+        <c:axId val="353571544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3467,6 +3459,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3500,7 +3493,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285418920"/>
+        <c:crossAx val="291182992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3608,6 +3601,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3758,11 +3752,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="285420096"/>
-        <c:axId val="284618664"/>
+        <c:axId val="353572720"/>
+        <c:axId val="353573112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="285420096"/>
+        <c:axId val="353572720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3793,6 +3787,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3857,7 +3852,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284618664"/>
+        <c:crossAx val="353573112"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3865,7 +3860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284618664"/>
+        <c:axId val="353573112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3976,7 +3971,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285420096"/>
+        <c:crossAx val="353572720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000001E-2"/>
@@ -4059,8 +4054,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14528213774602677"/>
-          <c:y val="2.3148180136855368E-2"/>
+          <c:x val="0.15998728169947249"/>
+          <c:y val="1.6629876192055006E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4103,7 +4098,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FMICIC!$B$31:$C$31</c:f>
+              <c:f>FMICIC!$B$28:$C$28</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4174,6 +4169,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4193,35 +4189,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>FMICIC!$D$30:$F$30</c:f>
+              <c:f>FMICIC!$D$27:$E$27</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>MAYO</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>JUNIO</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>JULIO</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FMICIC!$D$31:$F$31</c:f>
+              <c:f>FMICIC!$D$28:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4244,11 +4234,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="284619448"/>
-        <c:axId val="284619840"/>
+        <c:axId val="353573896"/>
+        <c:axId val="353574288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="284619448"/>
+        <c:axId val="353573896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4280,6 +4270,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4346,7 +4337,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284619840"/>
+        <c:crossAx val="353574288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4354,7 +4345,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284619840"/>
+        <c:axId val="353574288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4412,6 +4403,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4445,7 +4437,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284619448"/>
+        <c:crossAx val="353573896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4599,7 +4591,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FMICIC!$C$39:$C$40</c:f>
+              <c:f>FMICIC!$C$36:$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4665,6 +4657,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4684,35 +4677,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>FMICIC!$B$41:$B$43</c:f>
+              <c:f>FMICIC!$B$38:$B$39</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>MAYO</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>JUNIO</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>JULIO</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FMICIC!$C$41:$C$43</c:f>
+              <c:f>FMICIC!$C$38:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.4054054054054057E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4733,11 +4720,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="306674080"/>
-        <c:axId val="306674472"/>
+        <c:axId val="353575072"/>
+        <c:axId val="354758600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="306674080"/>
+        <c:axId val="353575072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4780,7 +4767,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306674472"/>
+        <c:crossAx val="354758600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4788,7 +4775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="306674472"/>
+        <c:axId val="354758600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4809,7 +4796,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="306674080"/>
+        <c:crossAx val="353575072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9548,7 +9535,7 @@
         <xdr:cNvPr id="4" name="Elipse 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9730,7 +9717,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9766,7 +9753,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9802,7 +9789,7 @@
         <xdr:cNvPr id="6" name="Elipse 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9979,7 +9966,7 @@
         <xdr:cNvPr id="8" name="Elipse 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10161,7 +10148,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10197,7 +10184,7 @@
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10233,7 +10220,7 @@
         <xdr:cNvPr id="8" name="Elipse 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10410,7 +10397,7 @@
         <xdr:cNvPr id="9" name="Elipse 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10592,7 +10579,7 @@
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10628,7 +10615,7 @@
         <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10664,7 +10651,7 @@
         <xdr:cNvPr id="9" name="Elipse 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7651C9FA-F1C1-4DC1-8B65-83F177D81ABA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7651C9FA-F1C1-4DC1-8B65-83F177D81ABA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10841,7 +10828,7 @@
         <xdr:cNvPr id="10" name="Elipse 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4117B433-E503-4469-B571-0E679D86533C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4117B433-E503-4469-B571-0E679D86533C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11007,23 +10994,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>124385</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>420781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>557211</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>632572</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>318526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11061,7 +11048,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11099,7 +11086,7 @@
         <xdr:cNvPr id="8" name="Elipse 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD4244F5-343D-45FC-BFE2-FFB5549963FA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD4244F5-343D-45FC-BFE2-FFB5549963FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11260,23 +11247,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>651063</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>302560</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>324971</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="Elipse 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83645D1D-B8D5-4236-A259-66485682E79F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83645D1D-B8D5-4236-A259-66485682E79F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11284,8 +11271,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5619750" y="10001250"/>
-          <a:ext cx="809625" cy="790575"/>
+          <a:off x="5144622" y="8452598"/>
+          <a:ext cx="648820" cy="612961"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -11422,12 +11409,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="es-PE" sz="2400" b="1">
+            <a:rPr lang="es-PE" sz="1600" b="1">
               <a:latin typeface="Forte" panose="03060902040502070203" pitchFamily="66" charset="0"/>
             </a:rPr>
             <a:t>JD</a:t>
           </a:r>
-          <a:endParaRPr lang="es-PE" sz="4000" b="1">
+          <a:endParaRPr lang="es-PE" sz="2800" b="1">
             <a:latin typeface="Forte" panose="03060902040502070203" pitchFamily="66" charset="0"/>
           </a:endParaRPr>
         </a:p>
@@ -12121,24 +12108,24 @@
         <v>8</v>
       </c>
       <c r="L21" s="80">
-        <f>FMICIC!D33</f>
+        <f>FMICIC!D30</f>
         <v>0</v>
       </c>
-      <c r="M21" s="80" t="e">
-        <f>FMICIC!E33</f>
-        <v>#DIV/0!</v>
+      <c r="M21" s="80">
+        <f>FMICIC!E30</f>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="N21" s="80" t="e">
-        <f>FMICIC!F33</f>
-        <v>#DIV/0!</v>
+        <f>FMICIC!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="O21" s="13">
-        <f>FMICIC!H33</f>
+        <f>FMICIC!F30</f>
         <v>0</v>
       </c>
-      <c r="P21" s="80" t="e">
-        <f>FMICIC!I33</f>
-        <v>#DIV/0!</v>
+      <c r="P21" s="80">
+        <f>FMICIC!G30</f>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1">
@@ -12310,7 +12297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C42" sqref="C42:C43"/>
     </sheetView>
   </sheetViews>
@@ -12462,7 +12449,7 @@
       <c r="D9" s="123"/>
       <c r="E9" s="124"/>
     </row>
-    <row r="10" spans="1:18" ht="26.25" thickBot="1">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1">
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
@@ -12521,7 +12508,7 @@
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
     </row>
-    <row r="16" spans="1:18" ht="48.75" thickBot="1">
+    <row r="16" spans="1:18" ht="24.75" thickBot="1">
       <c r="A16" s="37" t="s">
         <v>29</v>
       </c>
@@ -12588,7 +12575,7 @@
       <c r="G20" s="128"/>
       <c r="H20" s="128"/>
     </row>
-    <row r="21" spans="1:11" ht="48.75" thickBot="1">
+    <row r="21" spans="1:11" ht="24.75" thickBot="1">
       <c r="A21" s="37" t="s">
         <v>29</v>
       </c>
@@ -12922,7 +12909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -13439,16 +13426,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:L6"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A27:H27"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="F37:G38"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A1:L6"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13561,8 +13548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C9"/>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14048,10 +14035,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14060,8 +14047,9 @@
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
@@ -14069,21 +14057,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="149"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="150"/>
       <c r="N1" s="34"/>
       <c r="O1" s="34"/>
       <c r="P1" s="34"/>
@@ -14092,19 +14080,19 @@
       <c r="S1" s="34"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="150"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="152"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="153"/>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
       <c r="P2" s="34"/>
@@ -14113,19 +14101,19 @@
       <c r="S2" s="34"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="150"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="152"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="153"/>
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
       <c r="P3" s="34"/>
@@ -14134,19 +14122,19 @@
       <c r="S3" s="34"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1">
-      <c r="A4" s="150"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="152"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="153"/>
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
       <c r="P4" s="34"/>
@@ -14155,19 +14143,19 @@
       <c r="S4" s="34"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A5" s="150"/>
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="151"/>
-      <c r="M5" s="152"/>
+      <c r="A5" s="151"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="153"/>
       <c r="N5" s="34"/>
       <c r="O5" s="34"/>
       <c r="P5" s="34"/>
@@ -14176,19 +14164,19 @@
       <c r="S5" s="34"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="153"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="155"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="156"/>
       <c r="N6" s="34"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
@@ -14198,16 +14186,16 @@
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:19">
-      <c r="C8" s="156" t="s">
+      <c r="C8" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="157"/>
-      <c r="E8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="159"/>
     </row>
     <row r="9" spans="1:19" ht="23.25" customHeight="1" thickBot="1">
-      <c r="C9" s="159"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="161"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="162"/>
     </row>
     <row r="10" spans="1:19" ht="26.25" thickBot="1">
       <c r="C10" s="2" t="s">
@@ -14255,17 +14243,17 @@
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
       <c r="J15" s="48"/>
       <c r="K15" s="48"/>
     </row>
@@ -14312,36 +14300,36 @@
         <v>59</v>
       </c>
       <c r="E17" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17" s="45">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H17" s="46">
         <f>F17/G17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="47">
         <f>+H17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="20" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A20" s="144" t="s">
+      <c r="A20" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="145"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
     </row>
     <row r="21" spans="1:11" ht="48.75" customHeight="1" thickBot="1">
       <c r="A21" s="37" t="s">
@@ -14386,24 +14374,24 @@
         <v>60</v>
       </c>
       <c r="E22" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="45">
-        <v>0</v>
-      </c>
-      <c r="H22" s="46" t="e">
+        <v>27</v>
+      </c>
+      <c r="H22" s="46">
         <f>F22/G22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="47" t="e">
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="I22" s="47">
         <f>+H22</f>
-        <v>#DIV/0!</v>
+        <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
+    <row r="23" spans="1:11" ht="33.75" customHeight="1">
       <c r="A23" s="51"/>
       <c r="B23" s="76"/>
       <c r="C23" s="77"/>
@@ -14414,277 +14402,181 @@
       <c r="H23" s="79"/>
       <c r="I23" s="79"/>
     </row>
-    <row r="24" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A24" s="162" t="s">
+    <row r="24" spans="1:11" ht="30.75" customHeight="1">
+      <c r="A24" s="51"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+    </row>
+    <row r="25" spans="1:11" ht="48.75" customHeight="1" thickBot="1"/>
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A26" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="163"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
     </row>
-    <row r="25" spans="1:11" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A25" s="37" t="s">
+    <row r="27" spans="1:11" ht="24.75" thickBot="1">
+      <c r="A27" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B27" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C27" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="75" t="s">
-        <v>11</v>
-      </c>
+      <c r="D27" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="136"/>
+      <c r="G27" s="137"/>
     </row>
-    <row r="26" spans="1:11" ht="51.75" thickBot="1">
-      <c r="A26" s="42" t="s">
+    <row r="28" spans="1:11" ht="26.25" thickBot="1">
+      <c r="A28" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B28" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="45">
+      <c r="C28" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="13">
+        <f>F17</f>
         <v>0</v>
       </c>
-      <c r="F26" s="45">
-        <v>0</v>
-      </c>
-      <c r="G26" s="45">
-        <v>0</v>
-      </c>
-      <c r="H26" s="46" t="e">
-        <f>F26/G26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="47" t="e">
-        <f>+H26</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E28" s="13">
+        <f>F22</f>
+        <v>2</v>
+      </c>
+      <c r="F28" s="138"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
     </row>
-    <row r="27" spans="1:11" ht="21">
-      <c r="A27" s="51"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="29" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
+    <row r="29" spans="1:11" ht="42.75" customHeight="1">
       <c r="A29" s="144" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B29" s="145"/>
       <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
+      <c r="D29" s="73">
+        <f>G17</f>
+        <v>27</v>
+      </c>
+      <c r="E29" s="73">
+        <f>G22</f>
+        <v>27</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
     </row>
     <row r="30" spans="1:11" s="32" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A30" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="166" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="166"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
+      <c r="A30" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="134"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="58">
+        <f>D28/D29</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="58">
+        <f>E28/E29</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="F30" s="59">
+        <f>+K33</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="60">
+        <f>AVERAGE(D30:E30)</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30"/>
     </row>
-    <row r="31" spans="1:11" ht="39" customHeight="1" thickBot="1">
-      <c r="A31" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="13">
-        <v>0</v>
-      </c>
-      <c r="E31" s="13">
-        <v>0</v>
-      </c>
-      <c r="F31" s="165">
-        <v>0</v>
-      </c>
-      <c r="G31" s="165"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="139"/>
+    <row r="31" spans="1:11" ht="39" customHeight="1">
       <c r="J31" s="51"/>
       <c r="K31" s="52"/>
     </row>
-    <row r="32" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A32" s="164" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="165"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="73">
-        <v>4</v>
-      </c>
-      <c r="E32" s="73">
-        <v>0</v>
-      </c>
-      <c r="F32" s="165">
-        <v>0</v>
-      </c>
-      <c r="G32" s="165"/>
-      <c r="H32" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="55" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="27" thickBot="1">
-      <c r="A33" s="133" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="134"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="58">
-        <f>D31/D32</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="58" t="e">
-        <f>E31/E32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="167" t="e">
-        <f>F31/F32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="167"/>
-      <c r="H33" s="59">
-        <f>+K33</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="60" t="e">
-        <f>AVERAGE(D33:F33)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+    <row r="32" spans="1:11" ht="28.5" customHeight="1"/>
+    <row r="34" spans="2:21" ht="24" customHeight="1">
       <c r="L34" s="57"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" thickBot="1"/>
-    <row r="39" spans="1:21" ht="39.75" customHeight="1">
-      <c r="B39" s="125" t="s">
+    <row r="35" spans="2:21" ht="19.5" thickBot="1">
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+    </row>
+    <row r="36" spans="2:21" ht="18.75">
+      <c r="B36" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="126"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="2:21" ht="15.75">
+      <c r="B37" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21">
+      <c r="B38" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="36">
+        <f>D30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" ht="39.75" customHeight="1">
+      <c r="B39" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="36">
+        <f>E28/37</f>
+        <v>5.4054054054054057E-2</v>
+      </c>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="U39" s="49"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75">
-      <c r="B40" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="B41" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="36">
-        <f>D33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="B42" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="36">
-        <f>E31/37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="B43" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="36" t="e">
-        <f>F31/F32</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="H30:I31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A29:I29"/>
+  <mergeCells count="9">
     <mergeCell ref="A1:M6"/>
     <mergeCell ref="C8:E9"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="J31">
     <cfRule type="iconSet" priority="4">
@@ -14756,26 +14648,7 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{1DD96A15-A24A-4DE3-9FD9-40D05ECCCD4E}">
-            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>6</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
-              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
-              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I26</xm:sqref>
+          <xm:sqref>F30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="6" id="{CAA3DA5F-84D4-42D2-9E29-2B5389DABFF7}">
@@ -14794,7 +14667,7 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I22:I23 I27</xm:sqref>
+          <xm:sqref>I22:I24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
